--- a/Output/profit_loss_df.xlsx
+++ b/Output/profit_loss_df.xlsx
@@ -495,25 +495,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>118.6</v>
+        <v>138</v>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F2" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.93</v>
+        <v>4.88</v>
       </c>
       <c r="H2" t="n">
-        <v>568.51</v>
+        <v>1200.8</v>
       </c>
       <c r="I2" t="n">
-        <v>566.6799999999999</v>
+        <v>1199.42</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="3">
@@ -531,22 +531,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E3" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F3" t="n">
-        <v>2.93</v>
+        <v>4.88</v>
       </c>
       <c r="G3" t="n">
-        <v>2.93</v>
+        <v>4.88</v>
       </c>
       <c r="H3" t="n">
-        <v>527.8200000000001</v>
+        <v>1152.27</v>
       </c>
       <c r="I3" t="n">
-        <v>527.8200000000001</v>
+        <v>1152.27</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -567,25 +567,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>99.09999999999999</v>
+        <v>123.9</v>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F4" t="n">
-        <v>2.89</v>
+        <v>4.85</v>
       </c>
       <c r="G4" t="n">
-        <v>2.93</v>
+        <v>4.88</v>
       </c>
       <c r="H4" t="n">
-        <v>490.46</v>
+        <v>1106.49</v>
       </c>
       <c r="I4" t="n">
-        <v>488.95</v>
+        <v>1105.13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="5">
@@ -606,22 +606,22 @@
         <v>93.8</v>
       </c>
       <c r="E5" t="n">
-        <v>84.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="F5" t="n">
-        <v>2.55</v>
+        <v>3.99</v>
       </c>
       <c r="G5" t="n">
-        <v>2.53</v>
+        <v>3.98</v>
       </c>
       <c r="H5" t="n">
-        <v>531.03</v>
+        <v>1055.51</v>
       </c>
       <c r="I5" t="n">
-        <v>529.53</v>
+        <v>1054.62</v>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>84.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="E6" t="n">
-        <v>84.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="F6" t="n">
-        <v>2.53</v>
+        <v>3.98</v>
       </c>
       <c r="G6" t="n">
-        <v>2.53</v>
+        <v>3.98</v>
       </c>
       <c r="H6" t="n">
-        <v>498.95</v>
+        <v>1022.76</v>
       </c>
       <c r="I6" t="n">
-        <v>498.95</v>
+        <v>1022.76</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -675,25 +675,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>84.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2.49</v>
+        <v>3.95</v>
       </c>
       <c r="G7" t="n">
-        <v>2.53</v>
+        <v>3.98</v>
       </c>
       <c r="H7" t="n">
-        <v>470.21</v>
+        <v>992.4</v>
       </c>
       <c r="I7" t="n">
-        <v>468.37</v>
+        <v>990.91</v>
       </c>
       <c r="J7" t="n">
-        <v>1.85</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="8">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>145.1</v>
+        <v>164.6</v>
       </c>
       <c r="E8" t="n">
-        <v>129.2</v>
+        <v>146.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1.17</v>
+        <v>1.71</v>
       </c>
       <c r="G8" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
-        <v>416.67</v>
+        <v>802.85</v>
       </c>
       <c r="I8" t="n">
-        <v>413.81</v>
+        <v>799.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.85</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="9">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>129.2</v>
+        <v>146.9</v>
       </c>
       <c r="E9" t="n">
-        <v>129.2</v>
+        <v>146.9</v>
       </c>
       <c r="F9" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="G9" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="H9" t="n">
-        <v>367.31</v>
+        <v>746.8200000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>367.31</v>
+        <v>746.8200000000001</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>111.5</v>
+        <v>129.2</v>
       </c>
       <c r="E10" t="n">
-        <v>129.2</v>
+        <v>146.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1.12</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="H10" t="n">
-        <v>324.28</v>
+        <v>697.3200000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>320.8</v>
+        <v>693.9400000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
     </row>
   </sheetData>
